--- a/biology/Médecine/Pince_de_Bar/Pince_de_Bar.xlsx
+++ b/biology/Médecine/Pince_de_Bar/Pince_de_Bar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pince de Bar, originellement pince omphalotribe de Bar ou encore clamp de Bar, est une pince qui est placée sur le cordon ombilical du côté du nouveau-né, à environ 2 cm de la peau et ceci dès la naissance avant même la section du cordon[1]. La pince permettant une fermeture étanche du cordon, assure l’hémostase de celui-ci qui s'assèchera et tombera environ 10 jours plus tard.
-La pince de Bar porte le nom de son inventeur Paul Bar, obstétricien français[1]. À noter que certains fabricants orthographient par erreur Bar en Barr voire Bahr.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pince de Bar, originellement pince omphalotribe de Bar ou encore clamp de Bar, est une pince qui est placée sur le cordon ombilical du côté du nouveau-né, à environ 2 cm de la peau et ceci dès la naissance avant même la section du cordon. La pince permettant une fermeture étanche du cordon, assure l’hémostase de celui-ci qui s'assèchera et tombera environ 10 jours plus tard.
+La pince de Bar porte le nom de son inventeur Paul Bar, obstétricien français. À noter que certains fabricants orthographient par erreur Bar en Barr voire Bahr.
 Au XXIe siècle la pince est à usage unique, et le plus souvent en matière plastique. Pour l’ôter elle nécessite d’être coupée à l’aide d’une pince coupe clamp de Bar.
 </t>
         </is>
